--- a/cljoc-event.xlsx
+++ b/cljoc-event.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Staff Name</t>
   </si>
@@ -169,6 +169,37 @@
   </si>
   <si>
     <t>Procurement</t>
+  </si>
+  <si>
+    <t>Giap, Nguyen Manh</t>
+  </si>
+  <si>
+    <t>sadasdas</t>
+  </si>
+  <si>
+    <t>HSE</t>
+  </si>
+  <si>
+    <t>sadsadas - 21312312</t>
+  </si>
+  <si>
+    <t>sadasdsasadasdas</t>
+  </si>
+  <si>
+    <t>ádsadasdasd</t>
+  </si>
+  <si>
+    <t>sdadsadsadsa - 12312321</t>
+  </si>
+  <si>
+    <t>Cao Nhat Minh</t>
+  </si>
+  <si>
+    <t>IT App</t>
+  </si>
+  <si>
+    <t>cao van A - 2000
+cao van B - 2020</t>
   </si>
 </sst>
 </file>
@@ -511,7 +542,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F14" sqref="F14"/>
@@ -973,6 +1004,132 @@
       </c>
       <c r="F26"/>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>12312321</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>12312321</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>12312321</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>12312321</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>12312321</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>12312312321</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>213123213</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33"/>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cljoc-event.xlsx
+++ b/cljoc-event.xlsx
@@ -1,30 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2NF\OpenServer\domains\cljoc.thiep.com\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>staff_name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>dependent</t>
+  </si>
+  <si>
+    <t>created_on</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>2023-12-14 20:42:46.867</t>
+  </si>
+  <si>
+    <t>Lê Việt Anh</t>
+  </si>
+  <si>
+    <t>Xin chào</t>
+  </si>
+  <si>
+    <t>2023-12-27 21:00:24.043</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>ấd</t>
+  </si>
+  <si>
+    <t>Finance&amp;Accounting</t>
+  </si>
+  <si>
+    <t>dfgd</t>
+  </si>
+  <si>
+    <t>fgdfg</t>
+  </si>
+  <si>
+    <t>2023-12-27 21:00:32.603</t>
+  </si>
+  <si>
+    <t>cxzzxc</t>
+  </si>
+  <si>
+    <t>zx</t>
+  </si>
+  <si>
+    <t>HSE</t>
+  </si>
+  <si>
+    <t>czxc</t>
+  </si>
+  <si>
+    <t>ádasd</t>
+  </si>
+  <si>
+    <t>2023-12-27 21:00:36.910</t>
+  </si>
+  <si>
+    <t>Nguyen van C</t>
+  </si>
   <si>
     <t>Abcd</t>
-  </si>
-  <si>
-    <t>Nguyen van C</t>
   </si>
   <si>
     <t>PRO</t>
@@ -36,84 +101,32 @@
 Nguyen van C - 12345</t>
   </si>
   <si>
-    <t>Finance&amp;Accounting</t>
-  </si>
-  <si>
-    <t>Lê Việt Anh</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>HSE</t>
-  </si>
-  <si>
-    <t>staff_name</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>dependent</t>
-  </si>
-  <si>
-    <t>created_on</t>
-  </si>
-  <si>
-    <t>Xin chào</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>ấd</t>
-  </si>
-  <si>
-    <t>dfgd</t>
-  </si>
-  <si>
-    <t>fgdfg</t>
-  </si>
-  <si>
-    <t>cxzzxc</t>
-  </si>
-  <si>
-    <t>zx</t>
-  </si>
-  <si>
-    <t>czxc</t>
-  </si>
-  <si>
-    <t>ádasd</t>
-  </si>
-  <si>
-    <t>2023-12-14 20:42:46.867</t>
-  </si>
-  <si>
     <t>2023-12-14 20:42:46.871</t>
   </si>
   <si>
-    <t>2023-12-27 21:00:24.043</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:32.603</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:36.910</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,26 +153,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -449,44 +454,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.28515625" customWidth="true" style="0"/>
+    <col min="4" max="4" width="26.7109375" customWidth="true" style="0"/>
+    <col min="5" max="5" width="45.85546875" customWidth="true" style="0"/>
+    <col min="6" max="6" width="25.28515625" customWidth="true" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>123</v>
       </c>
@@ -503,15 +511,15 @@
         <v>23123</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customHeight="1" ht="30">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -520,74 +528,228 @@
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customHeight="1" ht="60">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
       </c>
       <c r="D6">
         <v>12345454</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/cljoc-event.xlsx
+++ b/cljoc-event.xlsx
@@ -15,105 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>staff_name</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>dependent</t>
-  </si>
-  <si>
-    <t>created_on</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>2023-12-14 20:42:46.867</t>
-  </si>
-  <si>
-    <t>Lê Việt Anh</t>
-  </si>
-  <si>
-    <t>Xin chào</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:24.043</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>ấd</t>
-  </si>
-  <si>
-    <t>Finance&amp;Accounting</t>
-  </si>
-  <si>
-    <t>dfgd</t>
-  </si>
-  <si>
-    <t>fgdfg</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:32.603</t>
-  </si>
-  <si>
-    <t>cxzzxc</t>
-  </si>
-  <si>
-    <t>zx</t>
-  </si>
-  <si>
-    <t>HSE</t>
-  </si>
-  <si>
-    <t>czxc</t>
-  </si>
-  <si>
-    <t>ádasd</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:36.910</t>
-  </si>
-  <si>
-    <t>Nguyen van C</t>
-  </si>
-  <si>
-    <t>Abcd</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>Nguyen van C - 12345
-Nguyen van C - 12345
-Nguyen van C - 12345
-Nguyen van C - 12345</t>
-  </si>
-  <si>
-    <t>2023-12-14 20:42:46.871</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Staff Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Dependants - DOB</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>adasdasd</t>
+  </si>
+  <si>
+    <t>2024-11-17 13:49:35</t>
   </si>
 </sst>
 </file>
@@ -152,13 +80,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,21 +381,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.28515625" customWidth="true" style="0"/>
-    <col min="4" max="4" width="26.7109375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="45.85546875" customWidth="true" style="0"/>
-    <col min="6" max="6" width="25.28515625" customWidth="true" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -490,258 +405,32 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1231</v>
-      </c>
-      <c r="E2">
-        <v>23123</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" customHeight="1" ht="30">
-      <c r="A3" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" customHeight="1" ht="60">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>12345454</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/cljoc-event.xlsx
+++ b/cljoc-event.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Staff Name</t>
   </si>
@@ -42,6 +42,36 @@
   </si>
   <si>
     <t>2024-11-17 13:49:35</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>2024-11-17 17:44:31</t>
+  </si>
+  <si>
+    <t>2024-11-17 17:44:33</t>
+  </si>
+  <si>
+    <t>2024-11-17 17:44:36</t>
+  </si>
+  <si>
+    <t>2024-11-17 17:44:50</t>
+  </si>
+  <si>
+    <t>áđâs</t>
+  </si>
+  <si>
+    <t>fdsgfds</t>
+  </si>
+  <si>
+    <t>gádasd</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>2024-11-17 17:48:49</t>
   </si>
 </sst>
 </file>
@@ -381,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -425,6 +455,75 @@
       </c>
       <c r="F2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/cljoc-event.xlsx
+++ b/cljoc-event.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Staff Name</t>
   </si>
@@ -72,6 +72,81 @@
   </si>
   <si>
     <t>2024-11-17 17:48:49</t>
+  </si>
+  <si>
+    <t>Nhóm 3</t>
+  </si>
+  <si>
+    <t>0523591685</t>
+  </si>
+  <si>
+    <t>A -20123 | B-1238123 | C-12839712</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:43:55</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:44:18</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:44:23</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:44:50</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:44:55</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:44:58</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:45:01</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:45:03</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:45:18</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:45:38</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:46:15</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:46:57</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:47:23</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:47:59</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:51:46</t>
+  </si>
+  <si>
+    <t>2024-11-18 00:52:17</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ádasd -2 | 13 | 2 | 1 | 3 | 24</t>
+  </si>
+  <si>
+    <t>2024-11-18 01:10:11</t>
+  </si>
+  <si>
+    <t>Test nè</t>
+  </si>
+  <si>
+    <t>sdfsdf | gfhfghfgh</t>
+  </si>
+  <si>
+    <t>2024-11-18 01:11:31</t>
   </si>
 </sst>
 </file>
@@ -411,7 +486,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +599,384 @@
       </c>
       <c r="G7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>819723981237</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>123123123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
